--- a/Табличка.xlsx
+++ b/Табличка.xlsx
@@ -1,17 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
-    <sheet name="Аркуш 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Аркуш 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Таблиця 1</t>
   </si>
@@ -30,7 +38,7 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
@@ -65,15 +73,19 @@
   <si>
     <t>Системні виклики</t>
   </si>
+  <si>
+    <t>64-розрядна версія трохи чистіша, але зовсім інша: OS X (і GNU / Linux та всі, крім Windows) на 64 архітектурах приймають посилання на систему V AMD64 ABI . Перейдіть до розділу A.2.1 для правила виклику syscall.
+ • аргументи передаються в регістрах rdi, rsi, rdx, r10, r8іr9
+ • номер syscall у raxреєстрі
+ • дзвінок здійснюється за допомогою syscall інструкції
+ • OS X сприяє змішуванню, вам потрібно додати 0x20000000номер syscall.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -90,13 +102,13 @@
       <name val="Helvetica Neue Medium"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="10"/>
       <color indexed="9"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
@@ -105,11 +117,6 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="16"/>
-      <name val="PT Serif"/>
     </font>
   </fonts>
   <fills count="3">
@@ -126,7 +133,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -316,7 +323,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="13"/>
+        <color indexed="14"/>
       </left>
       <right style="thin">
         <color indexed="14"/>
@@ -334,7 +341,7 @@
         <color indexed="14"/>
       </left>
       <right style="thin">
-        <color indexed="14"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
         <color indexed="14"/>
@@ -346,14 +353,36 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="14"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="14"/>
       </right>
       <top style="thin">
         <color indexed="14"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="14"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="14"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color indexed="10"/>
       </bottom>
@@ -361,124 +390,176 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellXfs count="26">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ff323232"/>
-      <rgbColor rgb="ffadadad"/>
-      <rgbColor rgb="ffd6d6d6"/>
-      <rgbColor rgb="ff89847f"/>
-      <rgbColor rgb="ffa6a29f"/>
-      <rgbColor rgb="ffe3e3e3"/>
-      <rgbColor rgb="fff4f9f8"/>
-      <rgbColor rgb="ff222222"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FF323232"/>
+      <rgbColor rgb="FFADADAD"/>
+      <rgbColor rgb="FFD6D6D6"/>
+      <rgbColor rgb="FF89847F"/>
+      <rgbColor rgb="FFA6A29F"/>
+      <rgbColor rgb="FFE3E3E3"/>
+      <rgbColor rgb="FFF4F9F8"/>
+      <rgbColor rgb="FF222222"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -677,7 +758,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -696,7 +777,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -726,7 +807,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -752,7 +833,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -778,7 +859,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -804,7 +885,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -830,7 +911,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -856,7 +937,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -882,7 +963,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -908,7 +989,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -934,7 +1015,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -947,9 +1028,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -966,7 +1053,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -985,7 +1072,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1011,7 +1098,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1037,7 +1124,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1063,7 +1150,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1089,7 +1176,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1115,7 +1202,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1141,7 +1228,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1167,7 +1254,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1193,7 +1280,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1219,7 +1306,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1232,9 +1319,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1248,7 +1341,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1267,7 +1360,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1297,7 +1390,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1323,7 +1416,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1349,7 +1442,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1375,7 +1468,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1401,7 +1494,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1427,7 +1520,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1453,7 +1546,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1479,7 +1572,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1505,7 +1598,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1518,268 +1611,281 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:G23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5:B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="22.2656" style="1" customWidth="1"/>
-    <col min="2" max="2" width="33.3125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="62.7188" style="1" customWidth="1"/>
-    <col min="4" max="7" width="16.3516" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="22.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="62.7109375" style="1" customWidth="1"/>
+    <col min="4" max="8" width="16.28515625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="16.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.65" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:7" ht="27.6" customHeight="1">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" ht="20.55" customHeight="1">
-      <c r="A2" t="s" s="3">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+    </row>
+    <row r="2" spans="1:7" ht="20.65" customHeight="1">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="4">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="4">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="6"/>
-    </row>
-    <row r="3" ht="128.6" customHeight="1">
-      <c r="A3" t="s" s="7">
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:7" ht="128.65" customHeight="1">
+      <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s" s="8">
+      <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s" s="9">
+      <c r="C3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="11"/>
-    </row>
-    <row r="4" ht="139.95" customHeight="1">
-      <c r="A4" t="s" s="12">
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="10"/>
+    </row>
+    <row r="4" spans="1:7" ht="139.9" customHeight="1">
+      <c r="A4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s" s="13">
+      <c r="B4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s" s="14">
+      <c r="C4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="16"/>
-    </row>
-    <row r="5" ht="21.25" customHeight="1">
-      <c r="A5" t="s" s="12">
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="15"/>
+    </row>
+    <row r="5" spans="1:7" ht="21.2" customHeight="1">
+      <c r="A5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="19"/>
-    </row>
-    <row r="6" ht="19.95" customHeight="1">
-      <c r="A6" s="20"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="16"/>
-    </row>
-    <row r="7" ht="19.95" customHeight="1">
-      <c r="A7" s="20"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="8" ht="19.95" customHeight="1">
-      <c r="A8" s="20"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="16"/>
-    </row>
-    <row r="9" ht="19.95" customHeight="1">
-      <c r="A9" s="20"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="19"/>
-    </row>
-    <row r="10" ht="19.95" customHeight="1">
-      <c r="A10" s="20"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="16"/>
-    </row>
-    <row r="11" ht="19.95" customHeight="1">
-      <c r="A11" s="20"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="19"/>
-    </row>
-    <row r="12" ht="19.95" customHeight="1">
-      <c r="A12" s="20"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="16"/>
-    </row>
-    <row r="13" ht="19.95" customHeight="1">
-      <c r="A13" s="20"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="19"/>
-    </row>
-    <row r="14" ht="19.95" customHeight="1">
-      <c r="A14" s="20"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="16"/>
-    </row>
-    <row r="15" ht="19.95" customHeight="1">
-      <c r="A15" s="20"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="19"/>
-    </row>
-    <row r="16" ht="19.95" customHeight="1">
-      <c r="A16" s="20"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="16"/>
-    </row>
-    <row r="17" ht="19.95" customHeight="1">
-      <c r="A17" s="20"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="19"/>
-    </row>
-    <row r="18" ht="19.95" customHeight="1">
-      <c r="A18" s="20"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="16"/>
-    </row>
-    <row r="19" ht="19.95" customHeight="1">
-      <c r="A19" s="20"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="19"/>
-    </row>
-    <row r="20" ht="19.95" customHeight="1">
-      <c r="A20" s="20"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="16"/>
-    </row>
-    <row r="21" ht="19.95" customHeight="1">
-      <c r="A21" s="20"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="19"/>
-    </row>
-    <row r="22" ht="19.95" customHeight="1">
-      <c r="A22" s="20"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="16"/>
-    </row>
-    <row r="23" ht="20.2" customHeight="1">
-      <c r="A23" s="23"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="26"/>
+      <c r="B5" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="17"/>
+    </row>
+    <row r="6" spans="1:7" ht="19.899999999999999" customHeight="1">
+      <c r="A6" s="18"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="15"/>
+    </row>
+    <row r="7" spans="1:7" ht="19.899999999999999" customHeight="1">
+      <c r="A7" s="18"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="17"/>
+    </row>
+    <row r="8" spans="1:7" ht="19.899999999999999" customHeight="1">
+      <c r="A8" s="18"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="15"/>
+    </row>
+    <row r="9" spans="1:7" ht="19.899999999999999" customHeight="1">
+      <c r="A9" s="18"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="17"/>
+    </row>
+    <row r="10" spans="1:7" ht="19.899999999999999" customHeight="1">
+      <c r="A10" s="18"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="15"/>
+    </row>
+    <row r="11" spans="1:7" ht="19.899999999999999" customHeight="1">
+      <c r="A11" s="18"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="17"/>
+    </row>
+    <row r="12" spans="1:7" ht="19.899999999999999" customHeight="1">
+      <c r="A12" s="18"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="15"/>
+    </row>
+    <row r="13" spans="1:7" ht="19.899999999999999" customHeight="1">
+      <c r="A13" s="18"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="17"/>
+    </row>
+    <row r="14" spans="1:7" ht="19.899999999999999" customHeight="1">
+      <c r="A14" s="18"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="15"/>
+    </row>
+    <row r="15" spans="1:7" ht="19.899999999999999" customHeight="1">
+      <c r="A15" s="18"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="17"/>
+    </row>
+    <row r="16" spans="1:7" ht="19.899999999999999" customHeight="1">
+      <c r="A16" s="18"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="15"/>
+    </row>
+    <row r="17" spans="1:7" ht="19.899999999999999" customHeight="1">
+      <c r="A17" s="18"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="17"/>
+    </row>
+    <row r="18" spans="1:7" ht="19.899999999999999" customHeight="1">
+      <c r="A18" s="18"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="15"/>
+    </row>
+    <row r="19" spans="1:7" ht="19.899999999999999" customHeight="1">
+      <c r="A19" s="18"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="17"/>
+    </row>
+    <row r="20" spans="1:7" ht="19.899999999999999" customHeight="1">
+      <c r="A20" s="18"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="15"/>
+    </row>
+    <row r="21" spans="1:7" ht="19.899999999999999" customHeight="1">
+      <c r="A21" s="18"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="17"/>
+    </row>
+    <row r="22" spans="1:7" ht="19.899999999999999" customHeight="1">
+      <c r="A22" s="18"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="15"/>
+    </row>
+    <row r="23" spans="1:7" ht="20.25" customHeight="1">
+      <c r="A23" s="19"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B5:B23"/>
   </mergeCells>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
+  <pageSetup scale="72" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
